--- a/docs/PT3/PT3_03.09.2024_output.xlsx
+++ b/docs/PT3/PT3_03.09.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L98"/>
+  <dimension ref="A1:N98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731607963.5229702</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731607964.9761412</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731607963.5229702.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731607964.9761412.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>240.5</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>243.81</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-3.310000000000002</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>-1.38</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731607966.7285626</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731607967.3506725</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731607966.7285626.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731607967.3506725.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>247.04</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>247</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-0.03999999999999204</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731607972.2941318</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731607972.6713529</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731607972.2941318.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731607972.6713529.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>248.81</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>248.44</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-0.3700000000000045</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731607975.8870778</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731607977.1535316</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731607975.8870778.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731607977.1535316.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>240.5</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>243.81</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-3.310000000000002</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>-1.38</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731607978.8071094</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731607979.4199033</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731607978.8071094.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731607979.4199033.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>247.04</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>247</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-0.03999999999999204</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -799,51 +845,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731607983.947961</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731607984.2890534</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731607983.947961.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731607984.2890534.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>248.81</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>248.44</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-0.3700000000000045</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -851,51 +903,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731607987.004943</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731607988.5235937</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731607987.004943.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731607988.5235937.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>241.22</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>244.54</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>-3.319999999999993</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>-1.38</v>
       </c>
     </row>
@@ -903,51 +961,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731607991.1209657</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731607994.1960435</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731607991.1209657.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731607994.1960435.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>247.8</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>247.92</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.1199999999999761</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -955,51 +1019,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731607996.5269036</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731607996.962229</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731607996.5269036.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731607996.962229.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>249.59</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>249.15</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-0.4399999999999977</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>-0.18</v>
       </c>
     </row>
@@ -1007,51 +1077,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731608002.467516</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731608003.3120887</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731608002.467516.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731608003.3120887.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>124.3</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>124.67</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.3700000000000045</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -1059,51 +1135,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731608011.2995963</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731608011.8977695</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731608011.2995963.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731608011.8977695.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>123.71</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>123.15</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.5599999999999881</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -1111,51 +1193,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731608012.6886094</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731608012.8966336</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731608012.6886094.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731608012.8966336.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>6106</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>6128</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>22</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -1163,51 +1251,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731608013.175577</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731608013.6645448</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731608013.175577.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731608013.6645448.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>6116.5</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>6144</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>27.5</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -1215,51 +1309,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731608015.341311</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731608015.8767488</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731608015.341311.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731608015.8767488.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>6210.5</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>6206.5</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-4</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -1267,51 +1367,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731608023.4193428</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731608024.1670442</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731608023.4193428.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731608024.1670442.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>6184</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>6179</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>5</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -1319,51 +1425,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731608026.1315694</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731608026.6423128</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731608026.1315694.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731608026.6423128.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>458.85</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>463.6</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>-4.75</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>-1.04</v>
       </c>
     </row>
@@ -1371,51 +1483,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731608027.8993595</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731608027.9560173</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731608027.8993595.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731608027.9560173.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>465.15</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>464.25</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-0.8999999999999773</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -1423,51 +1541,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731608028.0531425</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731608028.191233</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731608028.0531425.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731608028.191233.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>463.4</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>464.1</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.7000000000000455</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -1475,51 +1599,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731608033.1600838</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731608034.8365827</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731608033.1600838.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731608034.8365827.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>470.7</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>467.45</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>-3.25</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>-0.6899999999999999</v>
       </c>
     </row>
@@ -1527,51 +1657,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731608035.7451484</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731608036.1615627</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731608035.7451484.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731608036.1615627.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>467.1</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>466.5</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.6000000000000227</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -1579,95 +1715,107 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731608036.4487553</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731608036.4487553.png</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731608036.4487553.png</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>465.55</v>
       </c>
-      <c r="J23" t="n">
-        <v>465.55</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>465.9</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.3499999999999659</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731608037.0337932</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731608038.5564702</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731608037.0337932.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731608038.5564702.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>190.13</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>193.3</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-3.170000000000016</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>-1.67</v>
       </c>
     </row>
@@ -1675,51 +1823,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731608039.3743744</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731608039.722832</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731608039.3743744.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731608039.722832.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>193.41</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>194.19</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.7800000000000011</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -1727,51 +1881,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731608040.0316586</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731608040.1051872</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731608040.0316586.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731608040.1051872.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>194.22</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>194.41</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.1899999999999977</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -1779,51 +1939,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731608040.1695313</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731608040.6099868</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731608040.1695313.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731608040.6099868.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>194.36</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>193.32</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>-1.04000000000002</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>-0.54</v>
       </c>
     </row>
@@ -1831,51 +1997,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731608042.8999112</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731608043.347753</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731608042.8999112.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731608043.347753.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>195.39</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>195.32</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-0.06999999999999318</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -1883,51 +2055,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731608047.0030005</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731608047.49018</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731608047.0030005.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731608047.49018.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>194.34</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>194.41</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>-0.06999999999999318</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -1935,51 +2113,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731608048.6646502</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731608049.3180456</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731608048.6646502.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731608049.3180456.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>192.78</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>192.05</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.7299999999999898</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -1987,51 +2171,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731608052.0684495</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731608052.3000028</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731608052.0684495.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731608052.3000028.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>963.4</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>969.2</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>5.800000000000068</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -2039,51 +2229,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731608052.836382</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731608053.1267729</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731608052.836382.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731608053.1267729.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>966.8</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>964.6</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>-2.199999999999932</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>-0.23</v>
       </c>
     </row>
@@ -2091,51 +2287,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731608054.4930038</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731608055.1645923</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731608054.4930038.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731608055.1645923.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>962</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>962.6</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>-0.6000000000000227</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -2143,51 +2345,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731608057.7554114</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731608057.9936235</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731608057.7554114.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731608057.9936235.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>968.2</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>971.6</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>3.399999999999977</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -2195,51 +2403,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731608058.8816297</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731608060.9008749</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731608058.8816297.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731608060.9008749.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>972.2</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>965.4</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>-6.800000000000068</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>-0.7000000000000001</v>
       </c>
     </row>
@@ -2247,51 +2461,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731608061.4499636</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731608061.9234965</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731608061.4499636.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731608061.9234965.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>965.8</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>965.6</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.1999999999999318</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -2299,51 +2519,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731608062.5930247</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731608063.4523158</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/CNY1731608062.5930247.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/CNY1731608063.4523158.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>11.961</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>11.956</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>-0.005000000000000782</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -2351,51 +2577,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731608063.4672763</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731608064.0607638</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/CNY1731608063.4672763.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/CNY1731608064.0607638.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>11.956</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>11.969</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>-0.0129999999999999</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -2403,51 +2635,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731608064.0767198</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731608064.2668295</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/CNY1731608064.0767198.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/CNY1731608064.2668295.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>11.969</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>11.995</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.0259999999999998</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -2455,51 +2693,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731608065.1327987</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731608065.4574685</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/CNY1731608065.1327987.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/CNY1731608065.4574685.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>11.988</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>11.986</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>-0.001999999999998892</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -2507,51 +2751,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731608067.124362</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731608068.3865051</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/CNY1731608067.124362.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/CNY1731608068.3865051.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>11.979</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>11.981</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>-0.002000000000000668</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -2559,51 +2809,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731608070.5449147</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731608071.006245</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/CNY1731608070.5449147.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/CNY1731608071.006245.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>12.038</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>12.035</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>-0.003000000000000114</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -2611,51 +2867,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731608077.816268</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731608078.7789896</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731608077.816268.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731608078.7789896.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>105.24</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>106.18</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.9400000000000119</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>0.89</v>
       </c>
     </row>
@@ -2663,51 +2925,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731608080.0903482</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731608080.4015057</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731608080.0903482.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731608080.4015057.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>106.16</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>106.18</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.02000000000001023</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -2715,51 +2983,57 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731608087.4033942</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731608087.4670644</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731608087.4033942.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731608087.4670644.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>105.86</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>105.62</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.2399999999999949</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -2767,95 +3041,107 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731608087.6130698</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731608087.6130698.png</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731608087.6130698.png</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>105.64</v>
       </c>
-      <c r="J46" t="n">
-        <v>105.64</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>105.66</v>
+      </c>
+      <c r="M46" t="n">
+        <v>-0.01999999999999602</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731608088.0540247</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731608088.4677708</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731608088.0540247.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731608088.4677708.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>126.28</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>126.96</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.6799999999999926</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>0.54</v>
       </c>
     </row>
@@ -2863,51 +3149,57 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731608088.524584</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731608089.0138698</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731608088.524584.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731608089.0138698.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>126.66</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>128.26</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>1.599999999999994</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>1.26</v>
       </c>
     </row>
@@ -2915,51 +3207,57 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731608091.1356113</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731608092.1735294</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731608091.1356113.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731608092.1735294.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>129.66</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>129.68</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.02000000000001023</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -2967,51 +3265,57 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731608095.6915443</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731608096.5224028</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731608095.6915443.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731608096.5224028.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>129.86</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>130.32</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.4599999999999795</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -3019,51 +3323,57 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731608099.4080873</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731608099.9171176</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731608099.4080873.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731608099.9171176.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>128.32</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>127.22</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>1.099999999999994</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>0.86</v>
       </c>
     </row>
@@ -3071,51 +3381,57 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731608102.41582</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731608102.9290211</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731608102.41582.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731608102.9290211.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>41.235</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>41.55</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.3149999999999977</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>0.76</v>
       </c>
     </row>
@@ -3123,51 +3439,57 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731608103.0748792</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731608104.8977106</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731608103.0748792.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731608104.8977106.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>41.39</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>41.475</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.08500000000000085</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -3175,51 +3497,57 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731608110.5249274</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731608110.8706212</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731608110.5249274.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731608110.8706212.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>41.26</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>41.02</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.2399999999999949</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>0.58</v>
       </c>
     </row>
@@ -3227,51 +3555,57 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731608111.6199422</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731608112.41326</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731608111.6199422.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731608112.41326.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>41.04</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>40.77</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.269999999999996</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>0.66</v>
       </c>
     </row>
@@ -3279,51 +3613,57 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731608115.7385812</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731608116.0588095</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731608115.7385812.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731608116.0588095.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>1180.2</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>1187.6</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>7.399999999999864</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>0.63</v>
       </c>
     </row>
@@ -3331,51 +3671,57 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731608116.8083303</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731608117.4855804</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731608116.8083303.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731608117.4855804.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>1187.6</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>1197.6</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>10</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>0.84</v>
       </c>
     </row>
@@ -3383,51 +3729,57 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731608118.3885736</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731608119.0630913</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731608118.3885736.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731608119.0630913.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>1201.6</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>1200</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>-1.599999999999909</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -3435,43 +3787,49 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731608125.0780919</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731608125.0780919.png</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731608125.0780919.png</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>1165.4</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>1165.4</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3479,51 +3837,57 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731608127.1814346</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731608127.7491314</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731608127.1814346.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731608127.7491314.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>47.46</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>47.86</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0.3999999999999986</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>0.84</v>
       </c>
     </row>
@@ -3531,51 +3895,57 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731608127.8148322</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731608128.9804535</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731608127.8148322.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731608128.9804535.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>47.68</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>47.8</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>0.1199999999999974</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -3583,51 +3953,57 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731608134.1177554</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731608134.7063196</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731608134.1177554.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731608134.7063196.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>48.64</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>48.59</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>-0.04999999999999716</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -3635,51 +4011,57 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731608135.7313104</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731608136.0584242</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731608135.7313104.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731608136.0584242.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>48.53</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>48.22</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>-0.3100000000000023</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>-0.64</v>
       </c>
     </row>
@@ -3687,51 +4069,57 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731608136.7014306</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731608137.0389557</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731608136.7014306.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731608137.0389557.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>48.31</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>47.95</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>0.3599999999999994</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -3739,51 +4127,57 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731608137.1426945</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731608137.2907777</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731608137.1426945.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731608137.2907777.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>48.08</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>47.97</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>0.1099999999999994</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -3791,95 +4185,107 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731608137.3602462</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731608137.3602462.png</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731608137.3602462.png</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>48.04</v>
       </c>
-      <c r="J66" t="n">
-        <v>48.04</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0</v>
-      </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>47.94</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.1000000000000014</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731608140.5204144</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731608140.798834</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731608140.5204144.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731608140.798834.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>87.48</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>87.93000000000001</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>0.4500000000000028</v>
       </c>
-      <c r="L67" t="n">
+      <c r="N67" t="n">
         <v>0.51</v>
       </c>
     </row>
@@ -3887,51 +4293,57 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731608141.2227545</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731608142.3586442</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731608141.2227545.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731608142.3586442.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>87.91</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>88.09</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>0.1800000000000068</v>
       </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -3939,51 +4351,57 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731608144.5832736</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731608145.9903004</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731608144.5832736.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731608145.9903004.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>87.42</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>88.42</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>-1</v>
       </c>
-      <c r="L69" t="n">
+      <c r="N69" t="n">
         <v>-1.14</v>
       </c>
     </row>
@@ -3991,51 +4409,57 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731608146.8972247</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731608147.4958966</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731608146.8972247.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731608147.4958966.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>88.64</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>88.48999999999999</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>-0.1500000000000057</v>
       </c>
-      <c r="L70" t="n">
+      <c r="N70" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -4043,51 +4467,57 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731608149.4093084</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731608150.0003889</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731608149.4093084.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731608150.0003889.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>87.94</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>87.15000000000001</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>0.789999999999992</v>
       </c>
-      <c r="L71" t="n">
+      <c r="N71" t="n">
         <v>0.8999999999999999</v>
       </c>
     </row>
@@ -4095,51 +4525,57 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731608152.3040822</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731608152.5888197</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/SELG1731608152.3040822.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/SELG1731608152.5888197.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>47.1</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>47.78</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>0.6799999999999997</v>
       </c>
-      <c r="L72" t="n">
+      <c r="N72" t="n">
         <v>1.44</v>
       </c>
     </row>
@@ -4147,51 +4583,57 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731608152.9125013</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731608153.6803973</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/SELG1731608152.9125013.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/SELG1731608153.6803973.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>47.65</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>47.69</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>0.03999999999999915</v>
       </c>
-      <c r="L73" t="n">
+      <c r="N73" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -4199,51 +4641,57 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731608158.5897758</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731608160.3204434</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/SELG1731608158.5897758.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/SELG1731608160.3204434.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>47.81</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>47.07</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>-0.740000000000002</v>
       </c>
-      <c r="L74" t="n">
+      <c r="N74" t="n">
         <v>-1.55</v>
       </c>
     </row>
@@ -4251,51 +4699,57 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731608160.8758442</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731608161.2941794</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/SELG1731608160.8758442.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/SELG1731608161.2941794.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>47.17</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>46.8</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>0.3700000000000045</v>
       </c>
-      <c r="L75" t="n">
+      <c r="N75" t="n">
         <v>0.7799999999999999</v>
       </c>
     </row>
@@ -4303,43 +4757,49 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731608161.811876</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731608161.811876.png</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731608161.811876.png</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>46.8</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>46.8</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>0</v>
       </c>
-      <c r="L76" t="n">
+      <c r="N76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4347,51 +4807,57 @@
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731608163.5020316</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731608163.9401963</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731608163.5020316.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731608163.9401963.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>138.66</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>138.8</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>0.1400000000000148</v>
       </c>
-      <c r="L77" t="n">
+      <c r="N77" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -4399,51 +4865,57 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731608164.4945056</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731608164.9116256</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731608164.4945056.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731608164.9116256.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>139.76</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>139.4</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>0.3599999999999852</v>
       </c>
-      <c r="L78" t="n">
+      <c r="N78" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -4451,51 +4923,57 @@
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731608164.9265862</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731608165.540709</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731608164.9265862.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731608165.540709.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>139.4</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>139.44</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>0.03999999999999204</v>
       </c>
-      <c r="L79" t="n">
+      <c r="N79" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -4503,51 +4981,57 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731608166.09616</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731608166.8378603</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731608166.09616.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731608166.8378603.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>139.64</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>139.98</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>0.3400000000000034</v>
       </c>
-      <c r="L80" t="n">
+      <c r="N80" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -4555,95 +5039,107 @@
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731608171.877814</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731608171.877814.png</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731608171.877814.png</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>138.16</v>
       </c>
-      <c r="J81" t="n">
-        <v>138.16</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0</v>
-      </c>
       <c r="L81" t="n">
-        <v>0</v>
+        <v>138.84</v>
+      </c>
+      <c r="M81" t="n">
+        <v>-0.6800000000000068</v>
+      </c>
+      <c r="N81" t="n">
+        <v>-0.49</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731608172.9658468</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731608173.1605835</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731608172.9658468.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731608173.1605835.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>0.2717</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>0.2727</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>-0.001000000000000001</v>
       </c>
-      <c r="L82" t="n">
+      <c r="N82" t="n">
         <v>-0.37</v>
       </c>
     </row>
@@ -4651,51 +5147,57 @@
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731608175.9693115</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1731608177.493659</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731608175.9693115.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731608177.493659.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>0.2794</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>0.2798</v>
       </c>
-      <c r="K83" t="n">
-        <v>0.0003999999999999559</v>
-      </c>
-      <c r="L83" t="n">
+      <c r="M83" t="n">
+        <v>0.0004000000000000115</v>
+      </c>
+      <c r="N83" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -4703,51 +5205,57 @@
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731608185.046727</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731608185.3244448</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731608185.046727.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731608185.3244448.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>15.282</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>15.397</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>0.1150000000000002</v>
       </c>
-      <c r="L84" t="n">
+      <c r="N84" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -4755,51 +5263,57 @@
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731608185.4302273</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1731608185.6217732</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731608185.4302273.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731608185.6217732.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>15.379</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>15.44</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>0.06099999999999994</v>
       </c>
-      <c r="L85" t="n">
+      <c r="N85" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -4807,51 +5321,57 @@
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731608186.0934572</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1731608188.020263</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731608186.0934572.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731608188.020263.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>15.421</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>15.33</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>-0.0909999999999993</v>
       </c>
-      <c r="L86" t="n">
+      <c r="N86" t="n">
         <v>-0.59</v>
       </c>
     </row>
@@ -4859,51 +5379,57 @@
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1731608193.222534</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1731608193.6813796</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731608193.222534.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731608193.6813796.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>15.261</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>15.17</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>0.0909999999999993</v>
       </c>
-      <c r="L87" t="n">
+      <c r="N87" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -4911,51 +5437,57 @@
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1731608194.7068307</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1731608194.8667367</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731608194.7068307.png</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731608194.8667367.png</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>15.174</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>15.075</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>0.0990000000000002</v>
       </c>
-      <c r="L88" t="n">
+      <c r="N88" t="n">
         <v>0.65</v>
       </c>
     </row>
@@ -4963,51 +5495,57 @@
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1731608197.387445</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>1731608198.1628418</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731608197.387445.png</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731608198.1628418.png</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>646.5</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>651.45</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>4.950000000000045</v>
       </c>
-      <c r="L89" t="n">
+      <c r="N89" t="n">
         <v>0.77</v>
       </c>
     </row>
@@ -5015,51 +5553,57 @@
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1731608198.4190226</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>1731608198.4797642</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731608198.4190226.png</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731608198.4797642.png</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>650.25</v>
       </c>
-      <c r="J90" t="n">
+      <c r="L90" t="n">
         <v>650.35</v>
       </c>
-      <c r="K90" t="n">
+      <c r="M90" t="n">
         <v>0.1000000000000227</v>
       </c>
-      <c r="L90" t="n">
+      <c r="N90" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -5067,51 +5611,57 @@
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1731608198.7397335</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>1731608199.4411812</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731608198.7397335.png</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731608199.4411812.png</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>650.55</v>
       </c>
-      <c r="J91" t="n">
+      <c r="L91" t="n">
         <v>652.5</v>
       </c>
-      <c r="K91" t="n">
+      <c r="M91" t="n">
         <v>1.950000000000045</v>
       </c>
-      <c r="L91" t="n">
+      <c r="N91" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -5119,51 +5669,57 @@
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>1731608200.4413273</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>1731608201.0910199</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731608200.4413273.png</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731608201.0910199.png</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
         <v>653.05</v>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>649.45</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>-3.599999999999909</v>
       </c>
-      <c r="L92" t="n">
+      <c r="N92" t="n">
         <v>-0.5499999999999999</v>
       </c>
     </row>
@@ -5171,51 +5727,57 @@
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>1731608204.912487</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>1731608205.4664948</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731608204.912487.png</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731608205.4664948.png</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
         <v>652</v>
       </c>
-      <c r="J93" t="n">
+      <c r="L93" t="n">
         <v>649.85</v>
       </c>
-      <c r="K93" t="n">
+      <c r="M93" t="n">
         <v>-2.149999999999977</v>
       </c>
-      <c r="L93" t="n">
+      <c r="N93" t="n">
         <v>-0.33</v>
       </c>
     </row>
@@ -5223,51 +5785,57 @@
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>1731608205.645088</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>1731608205.8676336</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731608205.645088.png</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731608205.8676336.png</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
         <v>651.3</v>
       </c>
-      <c r="J94" t="n">
+      <c r="L94" t="n">
         <v>650</v>
       </c>
-      <c r="K94" t="n">
+      <c r="M94" t="n">
         <v>1.299999999999955</v>
       </c>
-      <c r="L94" t="n">
+      <c r="N94" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -5275,51 +5843,57 @@
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>1731608208.8040285</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>1731608209.168045</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731608208.8040285.png</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731608209.168045.png</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
         <v>113.67</v>
       </c>
-      <c r="J95" t="n">
+      <c r="L95" t="n">
         <v>114.4</v>
       </c>
-      <c r="K95" t="n">
+      <c r="M95" t="n">
         <v>0.730000000000004</v>
       </c>
-      <c r="L95" t="n">
+      <c r="N95" t="n">
         <v>0.64</v>
       </c>
     </row>
@@ -5327,51 +5901,57 @@
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>1731608209.801219</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>1731608210.5014515</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731608209.801219.png</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731608210.5014515.png</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
         <v>114.75</v>
       </c>
-      <c r="J96" t="n">
+      <c r="L96" t="n">
         <v>114.78</v>
       </c>
-      <c r="K96" t="n">
+      <c r="M96" t="n">
         <v>0.03000000000000114</v>
       </c>
-      <c r="L96" t="n">
+      <c r="N96" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -5379,51 +5959,57 @@
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>1731608215.539379</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>1731608216.0152638</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731608215.539379.png</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731608216.0152638.png</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
         <v>114.37</v>
       </c>
-      <c r="J97" t="n">
+      <c r="L97" t="n">
         <v>114.2</v>
       </c>
-      <c r="K97" t="n">
+      <c r="M97" t="n">
         <v>-0.1700000000000017</v>
       </c>
-      <c r="L97" t="n">
+      <c r="N97" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -5431,51 +6017,57 @@
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="n">
+        <v>96</v>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>1731608218.384123</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>1731608218.7247462</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731608218.384123.png</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731608218.7247462.png</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
         <v>113.4</v>
       </c>
-      <c r="J98" t="n">
+      <c r="L98" t="n">
         <v>113.06</v>
       </c>
-      <c r="K98" t="n">
+      <c r="M98" t="n">
         <v>0.3400000000000034</v>
       </c>
-      <c r="L98" t="n">
+      <c r="N98" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -5559,19 +6151,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6299999999999955</v>
+        <v>0.7299999999999969</v>
       </c>
       <c r="C3" t="n">
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.08999999999999934</v>
+        <v>0.1042857142857138</v>
       </c>
       <c r="E3" t="n">
-        <v>1.33</v>
+        <v>1.54</v>
       </c>
       <c r="F3" t="n">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="4">
@@ -5669,19 +6261,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-7.599999999999909</v>
+        <v>-7.249999999999943</v>
       </c>
       <c r="C8" t="n">
         <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.266666666666652</v>
+        <v>-1.208333333333324</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.64</v>
+        <v>-1.56</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.27</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="9">
@@ -5735,19 +6327,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8799999999999955</v>
+        <v>0.1999999999999886</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1759999999999991</v>
+        <v>0.03999999999999772</v>
       </c>
       <c r="E11" t="n">
-        <v>0.63</v>
+        <v>0.14</v>
       </c>
       <c r="F11" t="n">
-        <v>0.13</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="12">
@@ -5867,16 +6459,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.200000000000017</v>
+        <v>1.180000000000021</v>
       </c>
       <c r="C17" t="n">
         <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3000000000000043</v>
+        <v>0.2950000000000053</v>
       </c>
       <c r="E17" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="F17" t="n">
         <v>0.28</v>
@@ -5933,13 +6525,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.0006000000000000449</v>
+        <v>-0.0005999999999999894</v>
       </c>
       <c r="C20" t="n">
         <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.0003000000000000225</v>
+        <v>-0.0002999999999999947</v>
       </c>
       <c r="E20" t="n">
         <v>-0.23</v>
